--- a/dostępności.xlsx
+++ b/dostępności.xlsx
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +138,30 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -192,11 +206,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +299,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -488,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,10 +870,10 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -779,7 +891,7 @@
         <v>0.99998092312975129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -797,7 +909,7 @@
         <v>0.99998802144161947</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -815,7 +927,7 @@
         <v>0.99998092312975129</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -833,17 +945,33 @@
         <v>0.99999643373614289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
